--- a/easypoi/src/main/resources/import/ProgressBar.xlsx
+++ b/easypoi/src/main/resources/import/ProgressBar.xlsx
@@ -6,15 +6,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="模版导出-自定义列" sheetId="1" r:id="rId4"/>
+    <sheet name="模版导出" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
-  <si>
-    <t>模版导出-自定义列-学生数据</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+  <si>
+    <t>模版导出-学生数据</t>
   </si>
   <si>
     <t>学生姓名</t>
@@ -26,7 +26,7 @@
     <t>出生日期</t>
   </si>
   <si>
-    <t>Asdasasdasd</t>
+    <t>名称0</t>
   </si>
   <si>
     <t>女</t>
@@ -35,13 +35,10 @@
     <t>2018-03-05</t>
   </si>
   <si>
-    <t>Asdasdasd</t>
-  </si>
-  <si>
-    <t>Ddd</t>
-  </si>
-  <si>
-    <t>名称4</t>
+    <t>名称1</t>
+  </si>
+  <si>
+    <t>名称3</t>
   </si>
   <si>
     <t>名称5</t>
@@ -400,7 +397,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -534,6 +531,51 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -558,7 +600,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -595,10 +637,19 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,7 +1746,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
@@ -1724,7 +1775,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" ht="24.55" customHeight="1">
+    <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="9">
         <v>4</v>
       </c>
@@ -1737,8 +1788,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="24.55" customHeight="1">
-      <c r="A4" s="9"/>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>7</v>
+      </c>
       <c r="B4" t="s" s="10">
         <v>5</v>
       </c>
@@ -1748,10 +1801,8 @@
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="24.55" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>7</v>
-      </c>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="9"/>
       <c r="B5" t="s" s="10">
         <v>5</v>
       </c>
@@ -1761,7 +1812,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="24.55" customHeight="1">
+    <row r="6" ht="20.25" customHeight="1">
       <c r="A6" t="s" s="9">
         <v>8</v>
       </c>
@@ -1774,22 +1825,18 @@
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" ht="24.55" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>9</v>
-      </c>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="9"/>
       <c r="B7" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" ht="24.55" customHeight="1">
+    <row r="8" ht="20.25" customHeight="1">
       <c r="A8" t="s" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s" s="10">
         <v>5</v>
@@ -1800,48 +1847,40 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" ht="24.55" customHeight="1">
+    <row r="9" ht="20.25" customHeight="1">
       <c r="A9" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" ht="24.55" customHeight="1">
+    <row r="10" ht="20.25" customHeight="1">
       <c r="A10" t="s" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" ht="24.55" customHeight="1">
+    <row r="11" ht="20.25" customHeight="1">
       <c r="A11" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" t="s" s="11">
         <v>6</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" ht="24.55" customHeight="1">
+    <row r="12" ht="20.25" customHeight="1">
       <c r="A12" t="s" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="10">
         <v>5</v>
@@ -1852,22 +1891,20 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" ht="24.55" customHeight="1">
+    <row r="13" ht="20.25" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="C13" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" ht="24.55" customHeight="1">
+    <row r="14" ht="20.25" customHeight="1">
       <c r="A14" t="s" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="10">
         <v>5</v>
@@ -1878,9 +1915,9 @@
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" ht="24.55" customHeight="1">
+    <row r="15" ht="20.25" customHeight="1">
       <c r="A15" t="s" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s" s="10">
         <v>5</v>
@@ -1891,9 +1928,9 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" ht="24.55" customHeight="1">
+    <row r="16" ht="20.25" customHeight="1">
       <c r="A16" t="s" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="10">
         <v>5</v>
@@ -1904,9 +1941,9 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" ht="24.55" customHeight="1">
+    <row r="17" ht="20.25" customHeight="1">
       <c r="A17" t="s" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s" s="10">
         <v>5</v>
@@ -1917,9 +1954,9 @@
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" ht="24.55" customHeight="1">
+    <row r="18" ht="20.25" customHeight="1">
       <c r="A18" t="s" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s" s="10">
         <v>5</v>
@@ -1930,9 +1967,9 @@
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" ht="24.55" customHeight="1">
+    <row r="19" ht="20.25" customHeight="1">
       <c r="A19" t="s" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s" s="10">
         <v>5</v>
@@ -1943,9 +1980,9 @@
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" ht="24.55" customHeight="1">
+    <row r="20" ht="20.25" customHeight="1">
       <c r="A20" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s" s="10">
         <v>5</v>
@@ -1956,9 +1993,9 @@
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" ht="24.55" customHeight="1">
+    <row r="21" ht="20.25" customHeight="1">
       <c r="A21" t="s" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s" s="10">
         <v>5</v>
@@ -1969,9 +2006,9 @@
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" ht="24.55" customHeight="1">
+    <row r="22" ht="20.25" customHeight="1">
       <c r="A22" t="s" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s" s="10">
         <v>5</v>
@@ -1982,9 +2019,9 @@
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" ht="24.55" customHeight="1">
+    <row r="23" ht="20.25" customHeight="1">
       <c r="A23" t="s" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s" s="10">
         <v>5</v>
@@ -1995,9 +2032,9 @@
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" ht="24.55" customHeight="1">
+    <row r="24" ht="20.25" customHeight="1">
       <c r="A24" t="s" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s" s="10">
         <v>5</v>
@@ -2008,9 +2045,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" ht="24.55" customHeight="1">
+    <row r="25" ht="20.25" customHeight="1">
       <c r="A25" t="s" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="10">
         <v>5</v>
@@ -2021,9 +2058,9 @@
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" ht="24.55" customHeight="1">
+    <row r="26" ht="20.25" customHeight="1">
       <c r="A26" t="s" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s" s="10">
         <v>5</v>
@@ -2034,9 +2071,9 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" ht="24.55" customHeight="1">
+    <row r="27" ht="20.25" customHeight="1">
       <c r="A27" t="s" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s" s="10">
         <v>5</v>
@@ -2047,9 +2084,9 @@
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" ht="24.55" customHeight="1">
+    <row r="28" ht="20.25" customHeight="1">
       <c r="A28" t="s" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s" s="10">
         <v>5</v>
@@ -2060,9 +2097,9 @@
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" ht="24.55" customHeight="1">
+    <row r="29" ht="20.25" customHeight="1">
       <c r="A29" t="s" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="10">
         <v>5</v>
@@ -2073,9 +2110,9 @@
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" ht="24.55" customHeight="1">
+    <row r="30" ht="20.25" customHeight="1">
       <c r="A30" t="s" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s" s="10">
         <v>5</v>
@@ -2086,9 +2123,9 @@
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" ht="24.55" customHeight="1">
+    <row r="31" ht="20.25" customHeight="1">
       <c r="A31" t="s" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s" s="10">
         <v>5</v>
@@ -2099,9 +2136,9 @@
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" ht="24.55" customHeight="1">
+    <row r="32" ht="20.25" customHeight="1">
       <c r="A32" t="s" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s" s="10">
         <v>5</v>
@@ -2112,9 +2149,9 @@
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" ht="24.55" customHeight="1">
+    <row r="33" ht="20.25" customHeight="1">
       <c r="A33" t="s" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="10">
         <v>5</v>
@@ -2125,9 +2162,9 @@
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" ht="24.55" customHeight="1">
+    <row r="34" ht="20.25" customHeight="1">
       <c r="A34" t="s" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="10">
         <v>5</v>
@@ -2138,9 +2175,9 @@
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" ht="24.55" customHeight="1">
+    <row r="35" ht="20.25" customHeight="1">
       <c r="A35" t="s" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="10">
         <v>5</v>
@@ -2151,9 +2188,9 @@
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" ht="24.55" customHeight="1">
+    <row r="36" ht="20.25" customHeight="1">
       <c r="A36" t="s" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="10">
         <v>5</v>
@@ -2164,9 +2201,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" ht="24.55" customHeight="1">
+    <row r="37" ht="20.25" customHeight="1">
       <c r="A37" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="10">
         <v>5</v>
@@ -2177,9 +2214,9 @@
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" ht="24.55" customHeight="1">
+    <row r="38" ht="20.25" customHeight="1">
       <c r="A38" t="s" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s" s="10">
         <v>5</v>
@@ -2190,9 +2227,9 @@
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" ht="24.55" customHeight="1">
+    <row r="39" ht="20.25" customHeight="1">
       <c r="A39" t="s" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="10">
         <v>5</v>
@@ -2203,9 +2240,9 @@
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" ht="24.55" customHeight="1">
+    <row r="40" ht="20.25" customHeight="1">
       <c r="A40" t="s" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s" s="10">
         <v>5</v>
@@ -2216,9 +2253,9 @@
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" ht="24.55" customHeight="1">
+    <row r="41" ht="20.25" customHeight="1">
       <c r="A41" t="s" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s" s="10">
         <v>5</v>
@@ -2229,9 +2266,9 @@
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" ht="24.55" customHeight="1">
+    <row r="42" ht="20.25" customHeight="1">
       <c r="A42" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s" s="10">
         <v>5</v>
@@ -2242,9 +2279,9 @@
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" ht="24.55" customHeight="1">
+    <row r="43" ht="20.25" customHeight="1">
       <c r="A43" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s" s="10">
         <v>5</v>
@@ -2255,9 +2292,9 @@
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" ht="24.55" customHeight="1">
+    <row r="44" ht="20.25" customHeight="1">
       <c r="A44" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s" s="10">
         <v>5</v>
@@ -2268,9 +2305,9 @@
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" ht="24.55" customHeight="1">
+    <row r="45" ht="20.25" customHeight="1">
       <c r="A45" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s" s="10">
         <v>5</v>
@@ -2281,9 +2318,9 @@
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" ht="24.55" customHeight="1">
+    <row r="46" ht="20.25" customHeight="1">
       <c r="A46" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s" s="10">
         <v>5</v>
@@ -2294,9 +2331,9 @@
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" ht="24.55" customHeight="1">
+    <row r="47" ht="20.25" customHeight="1">
       <c r="A47" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="10">
         <v>5</v>
@@ -2307,9 +2344,9 @@
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" ht="24.55" customHeight="1">
+    <row r="48" ht="20.25" customHeight="1">
       <c r="A48" t="s" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s" s="10">
         <v>5</v>
@@ -2320,9 +2357,9 @@
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" ht="24.55" customHeight="1">
+    <row r="49" ht="20.25" customHeight="1">
       <c r="A49" t="s" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s" s="10">
         <v>5</v>
@@ -2333,9 +2370,9 @@
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" ht="24.55" customHeight="1">
+    <row r="50" ht="20.25" customHeight="1">
       <c r="A50" t="s" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s" s="10">
         <v>5</v>
@@ -2346,9 +2383,9 @@
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" ht="24.55" customHeight="1">
+    <row r="51" ht="20.25" customHeight="1">
       <c r="A51" t="s" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s" s="10">
         <v>5</v>
@@ -2359,9 +2396,9 @@
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" ht="24.55" customHeight="1">
+    <row r="52" ht="20.25" customHeight="1">
       <c r="A52" t="s" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s" s="10">
         <v>5</v>
@@ -2372,9 +2409,9 @@
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" ht="24.55" customHeight="1">
+    <row r="53" ht="20.25" customHeight="1">
       <c r="A53" t="s" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s" s="10">
         <v>5</v>
@@ -2385,9 +2422,9 @@
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" ht="24.55" customHeight="1">
+    <row r="54" ht="20.25" customHeight="1">
       <c r="A54" t="s" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s" s="10">
         <v>5</v>
@@ -2398,9 +2435,9 @@
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" ht="24.55" customHeight="1">
+    <row r="55" ht="20.25" customHeight="1">
       <c r="A55" t="s" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s" s="10">
         <v>5</v>
@@ -2411,9 +2448,9 @@
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" ht="24.55" customHeight="1">
+    <row r="56" ht="20.25" customHeight="1">
       <c r="A56" t="s" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s" s="10">
         <v>5</v>
@@ -2424,9 +2461,9 @@
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" ht="24.55" customHeight="1">
+    <row r="57" ht="20.25" customHeight="1">
       <c r="A57" t="s" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="10">
         <v>5</v>
@@ -2437,9 +2474,9 @@
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" ht="24.55" customHeight="1">
+    <row r="58" ht="20.25" customHeight="1">
       <c r="A58" t="s" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s" s="10">
         <v>5</v>
@@ -2450,9 +2487,9 @@
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" ht="24.55" customHeight="1">
+    <row r="59" ht="20.25" customHeight="1">
       <c r="A59" t="s" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s" s="10">
         <v>5</v>
@@ -2463,9 +2500,9 @@
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" ht="24.55" customHeight="1">
+    <row r="60" ht="20.25" customHeight="1">
       <c r="A60" t="s" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s" s="10">
         <v>5</v>
@@ -2476,9 +2513,9 @@
       <c r="D60" s="7"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" ht="24.55" customHeight="1">
+    <row r="61" ht="20.25" customHeight="1">
       <c r="A61" t="s" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s" s="10">
         <v>5</v>
@@ -2489,9 +2526,9 @@
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" ht="24.55" customHeight="1">
+    <row r="62" ht="20.25" customHeight="1">
       <c r="A62" t="s" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s" s="10">
         <v>5</v>
@@ -2502,9 +2539,9 @@
       <c r="D62" s="7"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" ht="24.55" customHeight="1">
+    <row r="63" ht="20.25" customHeight="1">
       <c r="A63" t="s" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s" s="10">
         <v>5</v>
@@ -2515,9 +2552,9 @@
       <c r="D63" s="7"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" ht="24.55" customHeight="1">
+    <row r="64" ht="20.25" customHeight="1">
       <c r="A64" t="s" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s" s="10">
         <v>5</v>
@@ -2528,9 +2565,9 @@
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" ht="24.55" customHeight="1">
+    <row r="65" ht="20.25" customHeight="1">
       <c r="A65" t="s" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s" s="10">
         <v>5</v>
@@ -2541,9 +2578,9 @@
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" ht="24.55" customHeight="1">
+    <row r="66" ht="20.25" customHeight="1">
       <c r="A66" t="s" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s" s="10">
         <v>5</v>
@@ -2554,9 +2591,9 @@
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" ht="24.55" customHeight="1">
+    <row r="67" ht="20.25" customHeight="1">
       <c r="A67" t="s" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s" s="10">
         <v>5</v>
@@ -2567,9 +2604,9 @@
       <c r="D67" s="7"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" ht="24.55" customHeight="1">
+    <row r="68" ht="20.25" customHeight="1">
       <c r="A68" t="s" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s" s="10">
         <v>5</v>
@@ -2580,9 +2617,9 @@
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" ht="24.55" customHeight="1">
+    <row r="69" ht="20.25" customHeight="1">
       <c r="A69" t="s" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s" s="10">
         <v>5</v>
@@ -2593,9 +2630,9 @@
       <c r="D69" s="7"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" ht="24.55" customHeight="1">
+    <row r="70" ht="20.25" customHeight="1">
       <c r="A70" t="s" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s" s="10">
         <v>5</v>
@@ -2606,9 +2643,9 @@
       <c r="D70" s="7"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" ht="24.55" customHeight="1">
+    <row r="71" ht="20.25" customHeight="1">
       <c r="A71" t="s" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s" s="10">
         <v>5</v>
@@ -2619,9 +2656,9 @@
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" ht="24.55" customHeight="1">
+    <row r="72" ht="20.25" customHeight="1">
       <c r="A72" t="s" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s" s="10">
         <v>5</v>
@@ -2632,9 +2669,9 @@
       <c r="D72" s="7"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" ht="24.55" customHeight="1">
+    <row r="73" ht="20.25" customHeight="1">
       <c r="A73" t="s" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s" s="10">
         <v>5</v>
@@ -2645,9 +2682,9 @@
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" ht="24.55" customHeight="1">
+    <row r="74" ht="20.25" customHeight="1">
       <c r="A74" t="s" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s" s="10">
         <v>5</v>
@@ -2658,9 +2695,9 @@
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" ht="24.55" customHeight="1">
+    <row r="75" ht="20.25" customHeight="1">
       <c r="A75" t="s" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s" s="10">
         <v>5</v>
@@ -2671,9 +2708,9 @@
       <c r="D75" s="7"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" ht="24.55" customHeight="1">
+    <row r="76" ht="20.25" customHeight="1">
       <c r="A76" t="s" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s" s="10">
         <v>5</v>
@@ -2684,9 +2721,9 @@
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" ht="24.55" customHeight="1">
+    <row r="77" ht="20.25" customHeight="1">
       <c r="A77" t="s" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s" s="10">
         <v>5</v>
@@ -2697,9 +2734,9 @@
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" ht="24.55" customHeight="1">
+    <row r="78" ht="20.25" customHeight="1">
       <c r="A78" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s" s="10">
         <v>5</v>
@@ -2710,9 +2747,9 @@
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" ht="24.55" customHeight="1">
+    <row r="79" ht="20.25" customHeight="1">
       <c r="A79" t="s" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s" s="10">
         <v>5</v>
@@ -2723,9 +2760,9 @@
       <c r="D79" s="7"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" ht="24.55" customHeight="1">
+    <row r="80" ht="20.25" customHeight="1">
       <c r="A80" t="s" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s" s="10">
         <v>5</v>
@@ -2736,9 +2773,9 @@
       <c r="D80" s="7"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" ht="24.55" customHeight="1">
+    <row r="81" ht="20.25" customHeight="1">
       <c r="A81" t="s" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s" s="10">
         <v>5</v>
@@ -2749,9 +2786,9 @@
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" ht="24.55" customHeight="1">
+    <row r="82" ht="20.25" customHeight="1">
       <c r="A82" t="s" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s" s="10">
         <v>5</v>
@@ -2762,9 +2799,9 @@
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" ht="24.55" customHeight="1">
+    <row r="83" ht="20.25" customHeight="1">
       <c r="A83" t="s" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s" s="10">
         <v>5</v>
@@ -2775,9 +2812,9 @@
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" ht="24.55" customHeight="1">
+    <row r="84" ht="20.25" customHeight="1">
       <c r="A84" t="s" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s" s="10">
         <v>5</v>
@@ -2788,9 +2825,9 @@
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" ht="24.55" customHeight="1">
+    <row r="85" ht="20.25" customHeight="1">
       <c r="A85" t="s" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s" s="10">
         <v>5</v>
@@ -2801,9 +2838,9 @@
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" ht="24.55" customHeight="1">
+    <row r="86" ht="20.25" customHeight="1">
       <c r="A86" t="s" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s" s="10">
         <v>5</v>
@@ -2814,9 +2851,9 @@
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" ht="24.55" customHeight="1">
+    <row r="87" ht="20.25" customHeight="1">
       <c r="A87" t="s" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s" s="10">
         <v>5</v>
@@ -2827,9 +2864,9 @@
       <c r="D87" s="7"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" ht="24.55" customHeight="1">
+    <row r="88" ht="20.25" customHeight="1">
       <c r="A88" t="s" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s" s="10">
         <v>5</v>
@@ -2840,9 +2877,9 @@
       <c r="D88" s="7"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" ht="24.55" customHeight="1">
+    <row r="89" ht="20.25" customHeight="1">
       <c r="A89" t="s" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s" s="10">
         <v>5</v>
@@ -2853,9 +2890,9 @@
       <c r="D89" s="7"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" ht="24.55" customHeight="1">
+    <row r="90" ht="20.25" customHeight="1">
       <c r="A90" t="s" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s" s="10">
         <v>5</v>
@@ -2866,9 +2903,9 @@
       <c r="D90" s="7"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" ht="24.55" customHeight="1">
+    <row r="91" ht="20.25" customHeight="1">
       <c r="A91" t="s" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s" s="10">
         <v>5</v>
@@ -2879,9 +2916,9 @@
       <c r="D91" s="7"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" ht="24.55" customHeight="1">
+    <row r="92" ht="20.25" customHeight="1">
       <c r="A92" t="s" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s" s="10">
         <v>5</v>
@@ -2892,9 +2929,9 @@
       <c r="D92" s="7"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" ht="24.55" customHeight="1">
+    <row r="93" ht="20.25" customHeight="1">
       <c r="A93" t="s" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s" s="10">
         <v>5</v>
@@ -2905,9 +2942,9 @@
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" ht="24.55" customHeight="1">
+    <row r="94" ht="20.25" customHeight="1">
       <c r="A94" t="s" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s" s="10">
         <v>5</v>
@@ -2918,9 +2955,9 @@
       <c r="D94" s="7"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" ht="24.55" customHeight="1">
+    <row r="95" ht="20.25" customHeight="1">
       <c r="A95" t="s" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s" s="10">
         <v>5</v>
@@ -2931,9 +2968,9 @@
       <c r="D95" s="7"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" ht="24.55" customHeight="1">
+    <row r="96" ht="20.25" customHeight="1">
       <c r="A96" t="s" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s" s="10">
         <v>5</v>
@@ -2944,9 +2981,9 @@
       <c r="D96" s="7"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" ht="24.55" customHeight="1">
+    <row r="97" ht="20.25" customHeight="1">
       <c r="A97" t="s" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s" s="10">
         <v>5</v>
@@ -2957,9 +2994,9 @@
       <c r="D97" s="7"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" ht="24.55" customHeight="1">
+    <row r="98" ht="20.25" customHeight="1">
       <c r="A98" t="s" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s" s="10">
         <v>5</v>
@@ -2970,9 +3007,9 @@
       <c r="D98" s="7"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" ht="24.55" customHeight="1">
+    <row r="99" ht="20.25" customHeight="1">
       <c r="A99" t="s" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s" s="10">
         <v>5</v>
@@ -2983,9 +3020,9 @@
       <c r="D99" s="7"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" ht="24.55" customHeight="1">
+    <row r="100" ht="20.25" customHeight="1">
       <c r="A100" t="s" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s" s="10">
         <v>5</v>
@@ -2996,9 +3033,9 @@
       <c r="D100" s="7"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" ht="24.55" customHeight="1">
+    <row r="101" ht="20.25" customHeight="1">
       <c r="A101" t="s" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s" s="10">
         <v>5</v>
@@ -3009,18 +3046,18 @@
       <c r="D101" s="7"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" ht="24.55" customHeight="1">
-      <c r="A102" t="s" s="9">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
+    <row r="102" ht="20.25" customHeight="1">
+      <c r="A102" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
